--- a/test_data/p_varying_preferences_to_projects.xlsx
+++ b/test_data/p_varying_preferences_to_projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferestigene/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{563073AC-BC02-4C41-8B79-9FE832107A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE414D99-182F-6543-97AF-EB1FAC22E2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13780" yWindow="500" windowWidth="15020" windowHeight="15300" xr2:uid="{1E197D3F-46D7-F64D-A5A2-E7997FF2947A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>S9</t>
   </si>
@@ -74,16 +74,19 @@
     <t>P1</t>
   </si>
   <si>
-    <t>3rd Preference</t>
-  </si>
-  <si>
-    <t>2nd Preference</t>
-  </si>
-  <si>
-    <t>1st Preference</t>
-  </si>
-  <si>
-    <t>Project</t>
+    <t>project_name</t>
+  </si>
+  <si>
+    <t>1st_choice</t>
+  </si>
+  <si>
+    <t>2nd_choice</t>
+  </si>
+  <si>
+    <t>3rd_choice</t>
+  </si>
+  <si>
+    <t>max_student</t>
   </si>
 </sst>
 </file>
@@ -150,11 +153,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -474,16 +480,16 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" style="1" customWidth="1"/>
@@ -494,18 +500,20 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -516,13 +524,16 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -530,13 +541,16 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -544,13 +558,16 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
